--- a/biology/Botanique/Cylicodiscus_gabunensis/Cylicodiscus_gabunensis.xlsx
+++ b/biology/Botanique/Cylicodiscus_gabunensis/Cylicodiscus_gabunensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cylicodiscus gabunensis est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Mimosoideae, originaire d'Afrique équatoriale. C'est l'unique espèce acceptée du genre Cylicodiscus (genre monotypique).
 Ce sont des arbres  à feuilles persistantes ou caduques selon les conditions  climatiques, qui peuvent atteindre  60 m de haut. La couronne hémisphérique peut devenir très large. Le tronc cylindrique et droit peut avoir un diamètre de 200 cm ou plus et peut ne pas avoir de branches jusqu'à 30 m ; il est gonflé à la base et parfois légèrement strié. L'arbre possède des épines marron quand c'est un jeune plant. 
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (19 décembre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (19 décembre 2018) :
 Cyrtoxiphus staudtii Harms
 Erythrophleum gabunense Taub.</t>
         </is>
@@ -545,11 +559,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cylicodiscus gabunensis peut être utilisé pour des usages locaux en médecine ou comme source de savon ou de bois[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cylicodiscus gabunensis peut être utilisé pour des usages locaux en médecine ou comme source de savon ou de bois. 
 Une décoction de l'écorce, administrée par lavement, est utilisée pour traiter les douleurs d'estomac. Il est bu ou utilisé dans des bains pour soulager la douleur et traiter les nausées, les maladies vénériennes, le paludisme, le psoriasis et les rhumatismes. 
-Le bois est de valeur, spécialement pour sa durabilité, et est parfois commercialisé comme bois d'œuvre à l'étranger sous le nom d'« okan »[4] 
+Le bois est de valeur, spécialement pour sa durabilité, et est parfois commercialisé comme bois d'œuvre à l'étranger sous le nom d'« okan » 
 L'écorce est aussi utilisée comme poison pour les poissons.
 </t>
         </is>
